--- a/src/main/resources/DatabaseEntries.xlsx
+++ b/src/main/resources/DatabaseEntries.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiang\IdeaProjects\LibrarySystem510\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiang\IdeaProjects\510ProjectFX\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C92B64-20CA-4B1D-A027-89CC443A4831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D19718-A771-4959-AEAD-159BA8ACAC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4092" yWindow="2328" windowWidth="17280" windowHeight="10032" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4992" yWindow="1608" windowWidth="17280" windowHeight="10032" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Media" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="163">
   <si>
     <t>MediaID</t>
   </si>
@@ -205,9 +205,6 @@
     <t>wwiegand</t>
   </si>
   <si>
-    <t>AKSUFNSF</t>
-  </si>
-  <si>
     <t>giand32@gmail.com</t>
   </si>
   <si>
@@ -527,6 +524,12 @@
   </si>
   <si>
     <t>PenaltyID</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -2426,7 +2429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H991"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -3849,8 +3852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.19921875" defaultRowHeight="17.399999999999999"/>
@@ -3889,16 +3892,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>53</v>
+        <v>161</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="F2" s="1">
         <v>45</v>
@@ -3909,16 +3912,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="F3" s="1">
         <v>10</v>
@@ -3929,16 +3932,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="F4" s="1">
         <v>46</v>
@@ -3949,16 +3952,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="F5" s="1">
         <v>10</v>
@@ -3969,16 +3972,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="F6" s="1">
         <v>3</v>
@@ -3989,16 +3992,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="F7" s="1">
         <v>11</v>
@@ -4009,16 +4012,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="F8" s="1">
         <v>45</v>
@@ -4029,16 +4032,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="F9" s="1">
         <v>27</v>
@@ -4049,16 +4052,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="F10" s="1">
         <v>13</v>
@@ -4069,16 +4072,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="F11" s="1">
         <v>7</v>
@@ -4089,16 +4092,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="F12" s="1">
         <v>20</v>
@@ -4109,16 +4112,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -4129,16 +4132,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -4149,16 +4152,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -4169,16 +4172,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -4189,16 +4192,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -4209,16 +4212,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -4232,13 +4235,13 @@
         <v>53</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -4249,16 +4252,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -4269,16 +4272,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -5287,10 +5290,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>51</v>
@@ -5304,7 +5307,7 @@
         <v>512</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.25" customHeight="1">
@@ -5315,7 +5318,7 @@
         <v>324</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25" customHeight="1">
@@ -5326,7 +5329,7 @@
         <v>323</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.25" customHeight="1">
@@ -5337,7 +5340,7 @@
         <v>322</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.25" customHeight="1">
@@ -5348,7 +5351,7 @@
         <v>321</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25" customHeight="1"/>
@@ -6371,19 +6374,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1">
@@ -6400,7 +6403,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1">
@@ -6417,7 +6420,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1">
@@ -6434,7 +6437,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" customHeight="1">
@@ -6451,7 +6454,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.25" customHeight="1">
@@ -6468,7 +6471,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25" customHeight="1">
@@ -6485,7 +6488,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.25" customHeight="1">
@@ -6502,7 +6505,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.25" customHeight="1">
@@ -6519,7 +6522,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25" customHeight="1">
@@ -6536,7 +6539,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25" customHeight="1">
@@ -6553,7 +6556,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.25" customHeight="1">
@@ -6570,7 +6573,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.25" customHeight="1">
@@ -6587,7 +6590,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.25" customHeight="1">
@@ -6604,7 +6607,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.25" customHeight="1">
@@ -6621,7 +6624,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1">
@@ -6638,7 +6641,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.25" customHeight="1">
@@ -6655,7 +6658,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.25" customHeight="1">
@@ -6672,7 +6675,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.25" customHeight="1">
@@ -6689,7 +6692,7 @@
         <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.25" customHeight="1">
@@ -6706,7 +6709,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.25" customHeight="1">
@@ -6723,7 +6726,7 @@
         <v>5</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.25" customHeight="1"/>
@@ -7729,7 +7732,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>47</v>
